--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,32 +62,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1633,10 +1633,10 @@
         <v>1.0099</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>8318.43</v>
+        <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9650.09</v>
+        <v>9649.49</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>850.09</v>
@@ -2702,6 +2702,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -30,7 +30,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="00000000"/>
+      <color rgb="00333333"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -43,12 +43,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2C300"/>
+        <fgColor rgb="00F0DC5A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9501A"/>
+        <fgColor rgb="00FF8361"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,6 +387,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="9"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="13.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -467,16 +467,16 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4229</v>
+        <v>1.4248</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>918.59</v>
+        <v>949.05</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1342.06</v>
+        <v>1399.85</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>34.96</v>
+        <v>47.68</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         <v>898.04</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1306.02</v>
+        <v>1330.99</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>95.05</v>
+        <v>120.02</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.6553</v>
+        <v>1.6551</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>776.41</v>
+        <v>803.24</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1270.21</v>
+        <v>1313.3</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-15.02</v>
+        <v>-16.15</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
         <v>0.9345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1171.5</v>
+        <v>1216.78</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1085.51</v>
+        <v>1126.37</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.27</v>
+        <v>-10.75</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -655,16 +655,16 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7855</v>
+        <v>1.7901</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>426.51</v>
+        <v>444.49</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>799.96</v>
+        <v>837.6900000000001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38.44</v>
+        <v>42.01</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -702,16 +702,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1109</v>
+        <v>2.1157</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>338.92</v>
+        <v>355.05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>742.8099999999999</v>
+        <v>780.75</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27.37</v>
+        <v>29.57</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9598</v>
+        <v>0.9605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>249.28</v>
+        <v>284.05</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>238.31</v>
+        <v>272.49</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.95</v>
+        <v>-0.34</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201.12</v>
+        <v>201.61</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-10.1</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166.98</v>
+        <v>169.13</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24.28</v>
+        <v>26.43</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82.58</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.54</v>
+        <v>3.97</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.67</v>
+        <v>36.03</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.41</v>
+        <v>-1.05</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1024,42 +1024,42 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>915.97</v>
+        <v>833.05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1332.1</v>
+        <v>1362.04</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94.26000000000001</v>
+        <v>-22.4</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
@@ -1071,42 +1071,42 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.6624</v>
+        <v>1.3514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>806.22</v>
+        <v>915.97</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1318.98</v>
+        <v>1357.56</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-21.24</v>
+        <v>119.72</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
@@ -1125,16 +1125,16 @@
         <v>519671</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>1.42</v>
+        <v>1.4221</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>867.12</v>
+        <v>897.58</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1266.86</v>
+        <v>1323.93</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35.51</v>
+        <v>47.51</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         <v>0.9362</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1131.8</v>
+        <v>1177.08</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1048.73</v>
+        <v>1089.62</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.89</v>
+        <v>-12.34</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1219,16 +1219,16 @@
         <v>70023</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1.7845</v>
+        <v>1.7891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>434.07</v>
+        <v>452.05</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>814.14</v>
+        <v>851.9299999999999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39.55</v>
+        <v>43.18</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1266,16 +1266,16 @@
         <v>530015</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2.1082</v>
+        <v>2.1136</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>304.34</v>
+        <v>320.47</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>667.02</v>
+        <v>704.71</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25.41</v>
+        <v>27.36</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1306,23 +1306,23 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.9587</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>227.52</v>
+        <v>249.29</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212.94</v>
+        <v>239.14</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-10.57</v>
+        <v>0.14</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1331,17 +1331,17 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J20" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K20" s="6" t="inlineStr">
@@ -1353,23 +1353,23 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.9576</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>214.52</v>
+        <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>205.08</v>
+        <v>213.46</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.35</v>
+        <v>-10.05</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1378,17 +1378,17 @@
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J21" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K21" s="6" t="inlineStr">
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188.99</v>
+        <v>192.26</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.54</v>
+        <v>9.81</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>166.98</v>
+        <v>169.13</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24.28</v>
+        <v>26.43</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35.67</v>
+        <v>36.03</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.41</v>
+        <v>-1.05</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1595,16 +1595,16 @@
         <v>162711</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>1.0503</v>
+        <v>1.0519</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>9331.139999999999</v>
+        <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10573.74</v>
+        <v>10594.59</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>373.74</v>
+        <v>394.59</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
         <v>100032</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>1.0099</v>
+        <v>1.0142</v>
       </c>
       <c r="D27" s="10" t="n">
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9649.49</v>
+        <v>9658.16</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>850.09</v>
+        <v>858.16</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
         <v>6750.28</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>5858.56</v>
+        <v>5901.09</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1058.56</v>
+        <v>1101.09</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1742,10 +1742,10 @@
         <v>6096.21</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5827.97</v>
+        <v>5848.09</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>627.97</v>
+        <v>648.09</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4554.19</v>
+        <v>4587.31</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>954.1900000000001</v>
+        <v>987.3099999999999</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3360.07</v>
+        <v>3313.62</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>160.07</v>
+        <v>113.62</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3295.62</v>
+        <v>3297.66</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>583.51</v>
+        <v>585.55</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3225.96</v>
+        <v>3255.71</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>25.96</v>
+        <v>55.71</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2931.07</v>
+        <v>2951.99</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>140.07</v>
+        <v>160.99</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>2244.72</v>
+        <v>2282.42</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>244.72</v>
+        <v>282.42</v>
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2120.48</v>
+        <v>2139.16</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>520.48</v>
+        <v>539.16</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1869.53</v>
+        <v>1883.23</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>269.53</v>
+        <v>283.23</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>1773.18</v>
+        <v>1837.92</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>173.18</v>
+        <v>237.92</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>1375.93</v>
+        <v>1387.98</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>175.93</v>
+        <v>187.98</v>
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
@@ -2253,16 +2253,16 @@
         <v>162411</v>
       </c>
       <c r="C40" s="9" t="n">
-        <v>0.5152</v>
+        <v>0.4776</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>2329.22</v>
+        <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1280.44</v>
+        <v>1360.38</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-319.56</v>
+        <v>-239.62</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1214.26</v>
+        <v>1214.41</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>14.26</v>
+        <v>14.41</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>1001.36</v>
+        <v>1011.18</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>201.36</v>
+        <v>211.18</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>921.86</v>
+        <v>902.48</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>121.86</v>
+        <v>102.48</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>495.08</v>
+        <v>497.12</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>95.08</v>
+        <v>97.12</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>468.87</v>
+        <v>472.32</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>68.87</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>450.4</v>
+        <v>454.29</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>50.4</v>
+        <v>54.29</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>430.78</v>
+        <v>434.36</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>30.78</v>
+        <v>34.36</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>418.55</v>
+        <v>425.32</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>18.55</v>
+        <v>25.32</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>240.44</v>
+        <v>240.88</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>11.68</v>
+        <v>12.12</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -520,10 +520,10 @@
         <v>898.04</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1330.99</v>
+        <v>1340.68</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>120.02</v>
+        <v>129.71</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         <v>803.24</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1313.3</v>
+        <v>1317.31</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-16.15</v>
+        <v>-12.14</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>1216.78</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1126.37</v>
+        <v>1132.58</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.75</v>
+        <v>-4.54</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -661,10 +661,10 @@
         <v>444.49</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>837.6900000000001</v>
+        <v>841.24</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42.01</v>
+        <v>45.56</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         <v>355.05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>780.75</v>
+        <v>783.52</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29.57</v>
+        <v>32.34</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>284.05</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272.49</v>
+        <v>274.85</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.34</v>
+        <v>2.02</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201.61</v>
+        <v>202.25</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-9.609999999999999</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169.13</v>
+        <v>171.13</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26.43</v>
+        <v>28.43</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84.01000000000001</v>
+        <v>84.38</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.97</v>
+        <v>4.34</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.03</v>
+        <v>36.01</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.05</v>
+        <v>-1.07</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1024,42 +1024,42 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.6619</v>
+        <v>1.3514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>833.05</v>
+        <v>915.97</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1362.04</v>
+        <v>1367.45</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-22.4</v>
+        <v>129.61</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
@@ -1071,42 +1071,42 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>915.97</v>
+        <v>833.05</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1357.56</v>
+        <v>1366.2</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>119.72</v>
+        <v>-18.24</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
@@ -1178,10 +1178,10 @@
         <v>1177.08</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1089.62</v>
+        <v>1095.63</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.34</v>
+        <v>-6.33</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1225,10 +1225,10 @@
         <v>452.05</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>851.9299999999999</v>
+        <v>855.55</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43.18</v>
+        <v>46.8</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1272,10 +1272,10 @@
         <v>320.47</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>704.71</v>
+        <v>707.21</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27.36</v>
+        <v>29.86</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1319,10 +1319,10 @@
         <v>249.29</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239.14</v>
+        <v>241.21</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.14</v>
+        <v>2.21</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>213.46</v>
+        <v>214.14</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-10.05</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192.26</v>
+        <v>193.11</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.81</v>
+        <v>10.66</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>169.13</v>
+        <v>171.13</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26.43</v>
+        <v>28.43</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.03</v>
+        <v>36.01</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.05</v>
+        <v>-1.07</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1601,10 +1601,10 @@
         <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10594.59</v>
+        <v>10660.53</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>394.59</v>
+        <v>460.53</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9658.16</v>
+        <v>9684.200000000001</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>858.16</v>
+        <v>884.2</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
         <v>6750.28</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>5901.09</v>
+        <v>5955.09</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1101.09</v>
+        <v>1155.09</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1742,10 +1742,10 @@
         <v>6096.21</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5848.09</v>
+        <v>5898.69</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>648.09</v>
+        <v>698.6900000000001</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4587.31</v>
+        <v>4595.59</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>987.3099999999999</v>
+        <v>995.59</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3313.62</v>
+        <v>3343.26</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>113.62</v>
+        <v>143.26</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3297.66</v>
+        <v>3316.09</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>585.55</v>
+        <v>603.98</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3255.71</v>
+        <v>3257.49</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>55.71</v>
+        <v>57.49</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2951.99</v>
+        <v>2953.74</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>160.99</v>
+        <v>162.74</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>2282.42</v>
+        <v>2267.34</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>282.42</v>
+        <v>267.34</v>
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2139.16</v>
+        <v>2153.96</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>539.16</v>
+        <v>553.96</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1883.23</v>
+        <v>1889.26</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>283.23</v>
+        <v>289.26</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>1837.92</v>
+        <v>1822.44</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>237.92</v>
+        <v>222.44</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
         <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1360.38</v>
+        <v>1316.82</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-239.62</v>
+        <v>-283.18</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1214.41</v>
+        <v>1222.03</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>14.41</v>
+        <v>22.03</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>1011.18</v>
+        <v>1011.72</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>211.18</v>
+        <v>211.72</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>902.48</v>
+        <v>902.04</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>102.48</v>
+        <v>102.04</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>497.12</v>
+        <v>499.6</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>97.12</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>472.32</v>
+        <v>475.52</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>72.31999999999999</v>
+        <v>75.52</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>454.29</v>
+        <v>454.93</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>54.29</v>
+        <v>54.93</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>434.36</v>
+        <v>435.01</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>34.36</v>
+        <v>35.01</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>425.32</v>
+        <v>427.56</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>25.32</v>
+        <v>27.56</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>240.88</v>
+        <v>242.4</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>12.12</v>
+        <v>13.64</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -473,10 +473,10 @@
         <v>949.05</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1399.85</v>
+        <v>1390.36</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>47.68</v>
+        <v>38.19</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         <v>898.04</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1340.68</v>
+        <v>1334.85</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>129.71</v>
+        <v>123.88</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         <v>803.24</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1317.31</v>
+        <v>1315.71</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-12.14</v>
+        <v>-13.74</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>1216.78</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1132.58</v>
+        <v>1130.02</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.54</v>
+        <v>-7.1</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -661,10 +661,10 @@
         <v>444.49</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>841.24</v>
+        <v>839.15</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45.56</v>
+        <v>43.47</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         <v>355.05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>783.52</v>
+        <v>781.96</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32.34</v>
+        <v>30.78</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>284.05</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>274.85</v>
+        <v>275.3</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.02</v>
+        <v>2.47</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>202.25</v>
+        <v>201.82</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-8.970000000000001</v>
+        <v>-9.4</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171.13</v>
+        <v>170.4</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28.43</v>
+        <v>27.7</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84.38</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.34</v>
+        <v>3.97</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.01</v>
+        <v>35.78</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.07</v>
+        <v>-1.3</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1024,42 +1024,42 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6619</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>915.97</v>
+        <v>833.05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1367.45</v>
+        <v>1364.54</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129.61</v>
+        <v>-19.9</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K14" s="6" t="inlineStr">
@@ -1071,42 +1071,42 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.6619</v>
+        <v>1.3514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>833.05</v>
+        <v>915.97</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1366.2</v>
+        <v>1361.5</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-18.24</v>
+        <v>123.66</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
@@ -1131,10 +1131,10 @@
         <v>897.58</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1323.93</v>
+        <v>1314.95</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47.51</v>
+        <v>38.53</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1178,10 +1178,10 @@
         <v>1177.08</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1095.63</v>
+        <v>1093.15</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.33</v>
+        <v>-8.81</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1225,10 +1225,10 @@
         <v>452.05</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>855.55</v>
+        <v>853.4299999999999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46.8</v>
+        <v>44.68</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1272,10 +1272,10 @@
         <v>320.47</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>707.21</v>
+        <v>705.8</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29.86</v>
+        <v>28.45</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1319,10 +1319,10 @@
         <v>249.29</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241.21</v>
+        <v>241.61</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.21</v>
+        <v>2.61</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>214.14</v>
+        <v>213.69</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-9.369999999999999</v>
+        <v>-9.82</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>193.11</v>
+        <v>192.26</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.66</v>
+        <v>9.81</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>171.13</v>
+        <v>170.4</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28.43</v>
+        <v>27.7</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.01</v>
+        <v>35.78</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.07</v>
+        <v>-1.3</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1601,10 +1601,10 @@
         <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10660.53</v>
+        <v>10624.65</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>460.53</v>
+        <v>424.65</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9684.200000000001</v>
+        <v>9649.49</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>884.2</v>
+        <v>849.49</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
         <v>6750.28</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>5955.09</v>
+        <v>5937.54</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1155.09</v>
+        <v>1137.54</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1742,10 +1742,10 @@
         <v>6096.21</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5898.69</v>
+        <v>5908.44</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>698.6900000000001</v>
+        <v>708.4400000000001</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4595.59</v>
+        <v>4570.75</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>995.59</v>
+        <v>970.75</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3343.26</v>
+        <v>3349.45</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>143.26</v>
+        <v>149.45</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3316.09</v>
+        <v>3295.62</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>603.98</v>
+        <v>583.51</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3257.49</v>
+        <v>3248.57</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>57.49</v>
+        <v>48.57</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2953.74</v>
+        <v>2948.51</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>162.74</v>
+        <v>157.51</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2153.96</v>
+        <v>2148.62</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>553.96</v>
+        <v>548.62</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1889.26</v>
+        <v>1889.58</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>289.26</v>
+        <v>289.58</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>1822.44</v>
+        <v>1866.06</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>222.44</v>
+        <v>266.06</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>1387.98</v>
+        <v>1379.95</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>187.98</v>
+        <v>179.95</v>
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
         <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1316.82</v>
+        <v>1340.28</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-283.18</v>
+        <v>-259.72</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1222.03</v>
+        <v>1218.44</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>22.03</v>
+        <v>18.44</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>1011.72</v>
+        <v>1001.81</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>211.72</v>
+        <v>201.81</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>902.04</v>
+        <v>889.86</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>102.04</v>
+        <v>89.86</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>499.6</v>
+        <v>493.35</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>99.59999999999999</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>475.52</v>
+        <v>474.29</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>75.52</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>454.93</v>
+        <v>454.56</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>54.93</v>
+        <v>54.56</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>435.01</v>
+        <v>433.06</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>35.01</v>
+        <v>33.06</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>427.56</v>
+        <v>424.36</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>27.56</v>
+        <v>24.36</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>242.4</v>
+        <v>241.57</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>13.64</v>
+        <v>12.81</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -467,16 +467,16 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4248</v>
+        <v>1.4255</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>949.05</v>
+        <v>981.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1390.36</v>
+        <v>1416.33</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>38.19</v>
+        <v>17.18</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -507,42 +507,42 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.6538</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>898.04</v>
+        <v>831.6799999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1334.85</v>
+        <v>1336.51</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>123.88</v>
+        <v>-38.9</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I3" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K3" s="6" t="inlineStr">
@@ -554,42 +554,42 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>90010</v>
+        <v>501021</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.6551</v>
+        <v>1.3485</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>803.24</v>
+        <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1315.71</v>
+        <v>1295.06</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-13.74</v>
+        <v>84.09</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I4" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J4" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K4" s="6" t="inlineStr">
@@ -608,16 +608,16 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9345</v>
+        <v>0.9337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1216.78</v>
+        <v>1265.09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1130.02</v>
+        <v>1150.73</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.1</v>
+        <v>-30.44</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -655,16 +655,16 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7901</v>
+        <v>1.7925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>444.49</v>
+        <v>463.76</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>839.15</v>
+        <v>856.15</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43.47</v>
+        <v>24.87</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -702,16 +702,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1157</v>
+        <v>2.1175</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>355.05</v>
+        <v>372.46</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>781.96</v>
+        <v>800.12</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30.78</v>
+        <v>11.44</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9605</v>
+        <v>0.9599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>284.05</v>
+        <v>319.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275.3</v>
+        <v>308.7</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.47</v>
+        <v>1.64</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201.82</v>
+        <v>198.69</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-9.4</v>
+        <v>-12.53</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170.4</v>
+        <v>169.47</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27.7</v>
+        <v>26.77</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84.01000000000001</v>
+        <v>82.39</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.97</v>
+        <v>2.35</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.78</v>
+        <v>35.21</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.3</v>
+        <v>-1.87</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1031,16 +1031,16 @@
         <v>90010</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.6619</v>
+        <v>1.6604</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>833.05</v>
+        <v>861.49</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1364.54</v>
+        <v>1384.41</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-19.9</v>
+        <v>-45.99</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -1071,42 +1071,42 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>501021</v>
+        <v>519671</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.4229</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>915.97</v>
+        <v>930.05</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1361.5</v>
+        <v>1342.06</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>123.66</v>
+        <v>18.66</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K15" s="6" t="inlineStr">
@@ -1118,42 +1118,42 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>519671</v>
+        <v>501021</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>1.4221</v>
+        <v>1.3514</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>897.58</v>
+        <v>915.97</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1314.95</v>
+        <v>1320.92</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38.53</v>
+        <v>83.08</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K16" s="6" t="inlineStr">
@@ -1172,16 +1172,16 @@
         <v>3318</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.9362</v>
+        <v>0.9352</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1177.08</v>
+        <v>1225.39</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1093.15</v>
+        <v>1114.61</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.81</v>
+        <v>-31.4</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1219,16 +1219,16 @@
         <v>70023</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1.7891</v>
+        <v>1.7915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>452.05</v>
+        <v>471.32</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>853.4299999999999</v>
+        <v>870.1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44.68</v>
+        <v>25.75</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1266,16 +1266,16 @@
         <v>530015</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2.1136</v>
+        <v>2.1157</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>320.47</v>
+        <v>337.88</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>705.8</v>
+        <v>725.83</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28.45</v>
+        <v>10.98</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
         <v>968</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.9587</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>249.29</v>
+        <v>285.14</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241.61</v>
+        <v>275.16</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.61</v>
+        <v>1.93</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>213.69</v>
+        <v>210.36</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-9.82</v>
+        <v>-13.14</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192.26</v>
+        <v>188.57</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9.81</v>
+        <v>6.12</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>170.4</v>
+        <v>169.47</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27.7</v>
+        <v>26.77</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35.78</v>
+        <v>35.21</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.3</v>
+        <v>-1.87</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1601,10 +1601,10 @@
         <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10624.65</v>
+        <v>10437.49</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>424.65</v>
+        <v>237.49</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9649.49</v>
+        <v>9484.610000000001</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>849.49</v>
+        <v>684.61</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1695,10 +1695,10 @@
         <v>6750.28</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>5937.54</v>
+        <v>5905.14</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1137.54</v>
+        <v>1105.14</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1742,10 +1742,10 @@
         <v>6096.21</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5908.44</v>
+        <v>5882.84</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>708.4400000000001</v>
+        <v>682.84</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4570.75</v>
+        <v>4512.79</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>970.75</v>
+        <v>912.79</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3349.45</v>
+        <v>3318.93</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>149.45</v>
+        <v>118.93</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3295.62</v>
+        <v>3248.54</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>583.51</v>
+        <v>536.4299999999999</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3248.57</v>
+        <v>3174.79</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>48.57</v>
+        <v>-25.21</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2948.51</v>
+        <v>2943.28</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>157.51</v>
+        <v>152.28</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>2267.34</v>
+        <v>2265.45</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>267.34</v>
+        <v>265.45</v>
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2148.62</v>
+        <v>2113.93</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>548.62</v>
+        <v>513.9299999999999</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1889.58</v>
+        <v>1872.79</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>289.58</v>
+        <v>272.79</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>1866.06</v>
+        <v>1805.55</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>266.06</v>
+        <v>205.55</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>1379.95</v>
+        <v>1365.22</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>179.95</v>
+        <v>165.22</v>
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
         <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1340.28</v>
+        <v>1303.42</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-259.72</v>
+        <v>-296.58</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1218.44</v>
+        <v>1190.64</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>18.44</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>1001.81</v>
+        <v>987.86</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>201.81</v>
+        <v>187.86</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>889.86</v>
+        <v>888.25</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>89.86</v>
+        <v>88.25</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>493.35</v>
+        <v>483.13</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>93.34999999999999</v>
+        <v>83.13</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>474.29</v>
+        <v>466.8</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>74.29000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>454.56</v>
+        <v>452.7</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>54.56</v>
+        <v>52.7</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>433.06</v>
+        <v>426.22</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>33.06</v>
+        <v>26.22</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>424.36</v>
+        <v>410.31</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>24.36</v>
+        <v>10.31</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>241.57</v>
+        <v>237.29</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>12.81</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,32 +62,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -388,16 +388,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="9"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="13.5"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,7 +473,7 @@
         <v>981.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1416.33</v>
+        <v>1439.83</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>17.18</v>
@@ -520,7 +520,7 @@
         <v>831.6799999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1336.51</v>
+        <v>1359.7</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>-38.9</v>
@@ -614,7 +614,7 @@
         <v>1265.09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1150.73</v>
+        <v>1172.7</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>-30.44</v>
@@ -661,7 +661,7 @@
         <v>463.76</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>856.15</v>
+        <v>874.01</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>24.87</v>
@@ -708,7 +708,7 @@
         <v>372.46</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>800.12</v>
+        <v>819.13</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>11.44</v>
@@ -755,7 +755,7 @@
         <v>319.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308.7</v>
+        <v>325.4</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1.64</v>
@@ -1037,7 +1037,7 @@
         <v>861.49</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1384.41</v>
+        <v>1430.78</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>-45.99</v>
@@ -1084,7 +1084,7 @@
         <v>930.05</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1342.06</v>
+        <v>1389.07</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>18.66</v>
@@ -1178,7 +1178,7 @@
         <v>1225.39</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1114.61</v>
+        <v>1158.57</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>-31.4</v>
@@ -1225,7 +1225,7 @@
         <v>471.32</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>870.1</v>
+        <v>905.8200000000001</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>25.75</v>
@@ -1272,7 +1272,7 @@
         <v>337.88</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>725.83</v>
+        <v>763.84</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>10.98</v>
@@ -1319,7 +1319,7 @@
         <v>285.14</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275.16</v>
+        <v>308.55</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>1.93</v>
@@ -2714,6 +2714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,32 +62,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -388,16 +388,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="13.5" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="9"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,10 +473,10 @@
         <v>981.52</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1439.83</v>
+        <v>1445.72</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>17.18</v>
+        <v>23.07</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         <v>831.6799999999999</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1359.7</v>
+        <v>1373.01</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-38.9</v>
+        <v>-25.59</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1295.06</v>
+        <v>1318.32</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84.09</v>
+        <v>107.35</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>1265.09</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1172.7</v>
+        <v>1189.52</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.44</v>
+        <v>-13.62</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -661,10 +661,10 @@
         <v>463.76</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>874.01</v>
+        <v>883.33</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.87</v>
+        <v>34.19</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         <v>372.46</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>819.13</v>
+        <v>826.8</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11.44</v>
+        <v>19.11</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>319.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325.4</v>
+        <v>330.49</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.64</v>
+        <v>6.73</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>198.69</v>
+        <v>201.42</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-12.53</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169.47</v>
+        <v>172.62</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26.77</v>
+        <v>29.92</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82.39</v>
+        <v>83.2</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.35</v>
+        <v>3.16</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.21</v>
+        <v>35.35</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.87</v>
+        <v>-1.73</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1037,10 +1037,10 @@
         <v>861.49</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1430.78</v>
+        <v>1444.57</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-45.99</v>
+        <v>-32.2</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>930.05</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1389.07</v>
+        <v>1394.65</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.66</v>
+        <v>24.24</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         <v>915.97</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1320.92</v>
+        <v>1344.64</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83.08</v>
+        <v>106.8</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1178,10 +1178,10 @@
         <v>1225.39</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1158.57</v>
+        <v>1174.87</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-31.4</v>
+        <v>-15.1</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1225,10 +1225,10 @@
         <v>471.32</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>905.8200000000001</v>
+        <v>915.3</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.75</v>
+        <v>35.23</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1272,10 +1272,10 @@
         <v>337.88</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>763.84</v>
+        <v>770.8</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.98</v>
+        <v>17.94</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1319,10 +1319,10 @@
         <v>285.14</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>308.55</v>
+        <v>313.08</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.93</v>
+        <v>6.46</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>210.36</v>
+        <v>213.25</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-13.14</v>
+        <v>-10.26</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188.57</v>
+        <v>190.41</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.12</v>
+        <v>7.96</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>169.47</v>
+        <v>172.62</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26.77</v>
+        <v>29.92</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35.21</v>
+        <v>35.35</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.87</v>
+        <v>-1.73</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1601,10 +1601,10 @@
         <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10437.49</v>
+        <v>10600.41</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>237.49</v>
+        <v>400.41</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K26" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1648,10 +1648,10 @@
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9484.610000000001</v>
+        <v>9580.07</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>684.61</v>
+        <v>780.0700000000001</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="K27" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1695,10 +1695,10 @@
         <v>6750.28</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>5905.14</v>
+        <v>6015.17</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1105.14</v>
+        <v>1215.17</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1742,10 +1742,10 @@
         <v>6096.21</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5882.84</v>
+        <v>5979.77</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>682.84</v>
+        <v>779.77</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="K29" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4512.79</v>
+        <v>4551.43</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>912.79</v>
+        <v>951.4299999999999</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K30" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3318.93</v>
+        <v>3443.67</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>118.93</v>
+        <v>243.67</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="K31" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3248.54</v>
+        <v>3303.8</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>536.4299999999999</v>
+        <v>591.6900000000001</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="K32" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3174.79</v>
+        <v>3230.13</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>-25.21</v>
+        <v>30.13</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="K33" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2943.28</v>
+        <v>2960.71</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>152.28</v>
+        <v>169.71</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="K34" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>2265.45</v>
+        <v>2263.57</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>265.45</v>
+        <v>263.57</v>
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="K35" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2113.93</v>
+        <v>2168.88</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>513.9299999999999</v>
+        <v>568.88</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K36" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1872.79</v>
+        <v>1884.37</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>272.79</v>
+        <v>284.37</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="K37" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2165,10 +2165,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>1805.55</v>
+        <v>1795.7</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>205.55</v>
+        <v>195.7</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="K38" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2212,10 +2212,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>1365.22</v>
+        <v>1374.59</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>165.22</v>
+        <v>174.59</v>
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="K39" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2259,10 +2259,10 @@
         <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1303.42</v>
+        <v>1266.56</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-296.58</v>
+        <v>-333.44</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="K40" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1190.64</v>
+        <v>1211.87</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>-9.359999999999999</v>
+        <v>11.87</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K41" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>987.86</v>
+        <v>991.8200000000001</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>187.86</v>
+        <v>191.82</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="K42" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>888.25</v>
+        <v>892.65</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>88.25</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="K43" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>483.13</v>
+        <v>487.05</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>83.13</v>
+        <v>87.05</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="K44" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>466.8</v>
+        <v>478.53</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>66.8</v>
+        <v>78.53</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K45" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>452.7</v>
+        <v>454.49</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>52.7</v>
+        <v>54.49</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="K46" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>426.22</v>
+        <v>430.45</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>26.22</v>
+        <v>30.45</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="K47" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>410.31</v>
+        <v>416.26</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>10.31</v>
+        <v>16.26</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K48" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>237.29</v>
+        <v>241.02</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>8.529999999999999</v>
+        <v>12.26</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>
@@ -2709,11 +2709,11 @@
       </c>
       <c r="K49" s="11" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>李天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -397,7 +397,7 @@
     <col customWidth="1" max="7" min="7" width="9"/>
     <col customWidth="1" max="8" min="8" width="9"/>
     <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="13.5"/>
+    <col customWidth="1" max="11" min="11" width="11.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,16 +467,16 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4255</v>
+        <v>1.4259</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>981.52</v>
+        <v>997.72</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1445.72</v>
+        <v>1428.74</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>23.07</v>
+        <v>6.08</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
       </c>
       <c r="K2" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -514,16 +514,16 @@
         <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6538</v>
+        <v>1.6533</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>831.6799999999999</v>
+        <v>845.95</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1373.01</v>
+        <v>1362.83</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-25.59</v>
+        <v>-35.77</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       </c>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -567,10 +567,10 @@
         <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1318.32</v>
+        <v>1310.06</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107.35</v>
+        <v>99.09</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -608,16 +608,16 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9337</v>
+        <v>0.9335</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1265.09</v>
+        <v>1288.86</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1189.52</v>
+        <v>1182.92</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.62</v>
+        <v>-20.22</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -655,16 +655,16 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7925</v>
+        <v>1.794</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>463.76</v>
+        <v>473.31</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>883.33</v>
+        <v>874.25</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34.19</v>
+        <v>25.11</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
       </c>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -702,16 +702,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1175</v>
+        <v>2.1188</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>372.46</v>
+        <v>381.21</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>826.8</v>
+        <v>818.38</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19.11</v>
+        <v>10.69</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -749,16 +749,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.961</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>319.9</v>
+        <v>336.9</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>330.49</v>
+        <v>328.85</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.73</v>
+        <v>5.09</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
       </c>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201.42</v>
+        <v>200.32</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
       </c>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172.62</v>
+        <v>172.87</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29.92</v>
+        <v>30.17</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
       </c>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83.2</v>
+        <v>82.58</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.35</v>
+        <v>34.95</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>康世海螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1031,16 +1031,16 @@
         <v>90010</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.6604</v>
+        <v>1.6593</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>861.49</v>
+        <v>890.02</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1444.57</v>
+        <v>1433.82</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-32.2</v>
+        <v>-42.95</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1078,16 @@
         <v>519671</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.4229</v>
+        <v>1.4239</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>930.05</v>
+        <v>962.45</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1394.65</v>
+        <v>1378.23</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24.24</v>
+        <v>7.82</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1131,10 +1131,10 @@
         <v>915.97</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1344.64</v>
+        <v>1336.22</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106.8</v>
+        <v>98.38</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1172,16 +1172,16 @@
         <v>3318</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.9352</v>
+        <v>0.9348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1225.39</v>
+        <v>1272.96</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1174.87</v>
+        <v>1168.32</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.1</v>
+        <v>-21.65</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="K17" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1219,16 +1219,16 @@
         <v>70023</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1.7915</v>
+        <v>1.7945</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>471.32</v>
+        <v>490.43</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>915.3</v>
+        <v>905.87</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35.23</v>
+        <v>25.8</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="K18" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1266,16 +1266,16 @@
         <v>530015</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2.1157</v>
+        <v>2.1185</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>337.88</v>
+        <v>355.38</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>770.8</v>
+        <v>762.9299999999999</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17.94</v>
+        <v>10.07</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1313,16 +1313,16 @@
         <v>968</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9608</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>285.14</v>
+        <v>319.14</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>313.08</v>
+        <v>311.51</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.46</v>
+        <v>4.89</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1366,10 +1366,10 @@
         <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>213.25</v>
+        <v>212.09</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-10.26</v>
+        <v>-11.42</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="K21" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>190.41</v>
+        <v>188.99</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.96</v>
+        <v>6.54</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172.62</v>
+        <v>172.87</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29.92</v>
+        <v>30.17</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="K23" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35.35</v>
+        <v>34.95</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="K25" s="6" t="inlineStr">
         <is>
-          <t>李淑云螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1601,10 +1601,10 @@
         <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10600.41</v>
+        <v>10544.16</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>400.41</v>
+        <v>344.16</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K26" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1648,10 +1648,10 @@
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9580.07</v>
+        <v>9501.969999999999</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>780.0700000000001</v>
+        <v>701.97</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="K27" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1695,10 +1695,10 @@
         <v>6750.28</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>6015.17</v>
+        <v>6008.42</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1215.17</v>
+        <v>1208.42</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="K28" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1742,10 +1742,10 @@
         <v>6096.21</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5979.77</v>
+        <v>5950.51</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>779.77</v>
+        <v>750.51</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="K29" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4551.43</v>
+        <v>4504.51</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>951.4299999999999</v>
+        <v>904.51</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K30" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3443.67</v>
+        <v>3418.02</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>243.67</v>
+        <v>218.02</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="K31" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3303.8</v>
+        <v>3285.38</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>591.6900000000001</v>
+        <v>573.27</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="K32" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3230.13</v>
+        <v>3206.33</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>30.13</v>
+        <v>6.33</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="K33" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2960.71</v>
+        <v>2951.99</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>169.71</v>
+        <v>160.99</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="K34" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>2263.57</v>
+        <v>2271.11</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>263.57</v>
+        <v>271.11</v>
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="K35" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2168.88</v>
+        <v>2157.72</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>568.88</v>
+        <v>557.72</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K36" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1884.37</v>
+        <v>1878.17</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>284.37</v>
+        <v>278.17</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="K37" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="K38" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2212,10 +2212,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>1374.59</v>
+        <v>1359.87</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>174.59</v>
+        <v>159.87</v>
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="K39" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2259,10 +2259,10 @@
         <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1266.56</v>
+        <v>1229.7</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-333.44</v>
+        <v>-370.3</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="K40" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1211.87</v>
+        <v>1206.33</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>11.87</v>
+        <v>6.33</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K41" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>991.8200000000001</v>
+        <v>978.14</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>191.82</v>
+        <v>178.14</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="K42" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>892.65</v>
+        <v>895.73</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>92.65000000000001</v>
+        <v>95.73</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="K43" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>487.05</v>
+        <v>479.7</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>87.05</v>
+        <v>79.7</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="K44" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>478.53</v>
+        <v>475.97</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>78.53</v>
+        <v>75.97</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K45" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>454.49</v>
+        <v>453.5</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>54.49</v>
+        <v>53.5</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="K46" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>430.45</v>
+        <v>426.22</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>30.45</v>
+        <v>26.22</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="K47" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>416.26</v>
+        <v>413.62</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>16.26</v>
+        <v>13.62</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K48" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>241.02</v>
+        <v>239.72</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>12.26</v>
+        <v>10.96</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="K49" s="11" t="inlineStr">
         <is>
-          <t>李天天基金</t>
+          <t>母天天基金</t>
         </is>
       </c>
     </row>

--- a/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/父母/父母资产配置.xlsx
@@ -467,16 +467,16 @@
         <v>519671</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4259</v>
+        <v>1.4262</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>997.72</v>
+        <v>1013.26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1428.74</v>
+        <v>1441.87</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>6.08</v>
+        <v>-3.23</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -514,16 +514,16 @@
         <v>90010</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.6533</v>
+        <v>1.6528</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>845.95</v>
+        <v>859.89</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1362.83</v>
+        <v>1380.12</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-35.77</v>
+        <v>-41.11</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         <v>898.04</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1310.06</v>
+        <v>1285.63</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99.09</v>
+        <v>74.66</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -608,16 +608,16 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9335</v>
+        <v>0.9331</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1288.86</v>
+        <v>1312.53</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1182.92</v>
+        <v>1197.29</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.22</v>
+        <v>-27.42</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
@@ -655,16 +655,16 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.794</v>
+        <v>1.7954</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>473.31</v>
+        <v>482.9</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>874.25</v>
+        <v>885.64</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.11</v>
+        <v>18.65</v>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
@@ -702,16 +702,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1188</v>
+        <v>2.1198</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>381.21</v>
+        <v>389.84</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>818.38</v>
+        <v>830.79</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10.69</v>
+        <v>4.39</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.961</v>
+        <v>0.9608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>336.9</v>
+        <v>354.88</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328.85</v>
+        <v>334.16</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.09</v>
+        <v>-6.83</v>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
@@ -802,10 +802,10 @@
         <v>214.89</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>200.32</v>
+        <v>200.13</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-10.9</v>
+        <v>-11.09</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         <v>212.74</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172.87</v>
+        <v>162.07</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30.17</v>
+        <v>19.37</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>62.09</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82.58</v>
+        <v>80.22</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.54</v>
+        <v>0.18</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>24.24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.95</v>
+        <v>34.74</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.13</v>
+        <v>-2.34</v>
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
@@ -1031,16 +1031,16 @@
         <v>90010</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1.6593</v>
+        <v>1.6581</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>890.02</v>
+        <v>917.91</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1433.82</v>
+        <v>1473.25</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-42.95</v>
+        <v>-48.78</v>
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
@@ -1078,16 +1078,16 @@
         <v>519671</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.4239</v>
+        <v>1.4245</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>962.45</v>
+        <v>993.53</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1378.23</v>
+        <v>1413.79</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.82</v>
+        <v>-1.52</v>
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         <v>915.97</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1336.22</v>
+        <v>1311.3</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98.38</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
@@ -1172,16 +1172,16 @@
         <v>3318</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.9348</v>
+        <v>0.9339</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1272.96</v>
+        <v>1320.32</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1168.32</v>
+        <v>1204.4</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-21.65</v>
+        <v>-28.71</v>
       </c>
       <c r="G17" s="6" t="inlineStr">
         <is>
@@ -1219,16 +1219,16 @@
         <v>70023</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1.7945</v>
+        <v>1.7969</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>490.43</v>
+        <v>509.62</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>905.87</v>
+        <v>934.64</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25.8</v>
+        <v>18.88</v>
       </c>
       <c r="G18" s="6" t="inlineStr">
         <is>
@@ -1266,16 +1266,16 @@
         <v>530015</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2.1185</v>
+        <v>2.1207</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>355.38</v>
+        <v>372.65</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>762.9299999999999</v>
+        <v>794.15</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10.07</v>
+        <v>3.86</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1313,16 +1313,16 @@
         <v>968</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>319.14</v>
+        <v>355.1</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>311.51</v>
+        <v>334.36</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.89</v>
+        <v>-6.7</v>
       </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         <v>227.52</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>212.09</v>
+        <v>211.89</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-11.42</v>
+        <v>-11.62</v>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         <v>142.1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188.99</v>
+        <v>183.59</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.54</v>
+        <v>1.14</v>
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>212.74</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172.87</v>
+        <v>162.07</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30.17</v>
+        <v>19.37</v>
       </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
@@ -1507,10 +1507,10 @@
         <v>24.24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34.95</v>
+        <v>34.74</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.13</v>
+        <v>-2.34</v>
       </c>
       <c r="G24" s="6" t="inlineStr">
         <is>
@@ -1601,10 +1601,10 @@
         <v>9697.57</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>10544.16</v>
+        <v>10433.61</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>344.16</v>
+        <v>233.61</v>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>8677.6</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>9501.969999999999</v>
+        <v>9449.9</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>701.97</v>
+        <v>649.9</v>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
@@ -1682,23 +1682,23 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B28" s="8" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>6008.42</v>
+        <v>5740.19</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1208.42</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
@@ -1729,23 +1729,23 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B29" s="8" t="n">
-        <v>968</v>
+        <v>1180</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>0.853</v>
+        <v>0.7111</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>6096.21</v>
+        <v>6750.28</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>5950.51</v>
+        <v>5620.28</v>
       </c>
       <c r="F29" s="10" t="n">
-        <v>750.51</v>
+        <v>820.28</v>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="I29" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J29" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K29" s="11" t="inlineStr">
@@ -1789,10 +1789,10 @@
         <v>2760.12</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>4504.51</v>
+        <v>4405.15</v>
       </c>
       <c r="F30" s="10" t="n">
-        <v>904.51</v>
+        <v>805.15</v>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>4423.48</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>3418.02</v>
+        <v>3324.68</v>
       </c>
       <c r="F31" s="10" t="n">
-        <v>218.02</v>
+        <v>124.68</v>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
@@ -1883,10 +1883,10 @@
         <v>2046.97</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>3285.38</v>
+        <v>3254.68</v>
       </c>
       <c r="F32" s="10" t="n">
-        <v>573.27</v>
+        <v>542.5700000000001</v>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
@@ -1930,10 +1930,10 @@
         <v>5949.77</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3206.33</v>
+        <v>3234.88</v>
       </c>
       <c r="F33" s="10" t="n">
-        <v>6.33</v>
+        <v>34.88</v>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         <v>1743.65</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>2951.99</v>
+        <v>2924.1</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>160.99</v>
+        <v>133.1</v>
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         <v>1884.74</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>2271.11</v>
+        <v>2278.65</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>271.11</v>
+        <v>278.65</v>
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
         <v>1213.09</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2157.72</v>
+        <v>2092.82</v>
       </c>
       <c r="F36" s="10" t="n">
-        <v>557.72</v>
+        <v>492.82</v>
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         <v>1630.08</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>1878.17</v>
+        <v>1864.15</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>278.17</v>
+        <v>264.15</v>
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         <v>1407.29</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>1795.7</v>
+        <v>1854.8</v>
       </c>
       <c r="F38" s="10" t="n">
-        <v>195.7</v>
+        <v>254.8</v>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>1338.46</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>1359.87</v>
+        <v>1327.75</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>159.87</v>
+        <v>127.75</v>
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
@@ -2259,10 +2259,10 @@
         <v>3350.7</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>1229.7</v>
+        <v>1249.81</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>-370.3</v>
+        <v>-350.19</v>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
         <v>1495.03</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1206.33</v>
+        <v>1179.27</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>6.33</v>
+        <v>-20.73</v>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
@@ -2353,10 +2353,10 @@
         <v>900.35</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>978.14</v>
+        <v>968.41</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>178.14</v>
+        <v>168.41</v>
       </c>
       <c r="G42" s="11" t="inlineStr">
         <is>
@@ -2400,10 +2400,10 @@
         <v>733.79</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>895.73</v>
+        <v>890.16</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>95.73</v>
+        <v>90.16</v>
       </c>
       <c r="G43" s="11" t="inlineStr">
         <is>
@@ -2447,10 +2447,10 @@
         <v>496.13</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>479.7</v>
+        <v>478.66</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>79.7</v>
+        <v>78.66</v>
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         <v>492.57</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>475.97</v>
+        <v>461.63</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>75.97</v>
+        <v>61.63</v>
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         <v>333.04</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>453.5</v>
+        <v>451.56</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>53.5</v>
+        <v>51.56</v>
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
@@ -2588,10 +2588,10 @@
         <v>325.61</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>426.22</v>
+        <v>418.08</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>26.22</v>
+        <v>18.08</v>
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
         <v>275.49</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>413.62</v>
+        <v>406.81</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>13.62</v>
+        <v>6.81</v>
       </c>
       <c r="G48" s="11" t="inlineStr">
         <is>
@@ -2682,10 +2682,10 @@
         <v>275.96</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>239.72</v>
+        <v>237.21</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>10.96</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>
